--- a/Feature Engineering 0209.xlsx
+++ b/Feature Engineering 0209.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="197">
   <si>
     <t>加入Discuss长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,6 +671,170 @@
   </si>
   <si>
     <t>还是达不到昔日baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc2vec baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking 融合 GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking 融合 CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix stacking fuse bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc2vec 增加wiki 中文语料库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始深度学习之旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softmax 分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softmax 加权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值化  shang baseline 0.511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试一波数据增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据增强没有效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accruarcy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCNN 采用回归模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCNN epoch 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案98 609 特征联合学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf-idf 关键词提取法 pad-sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking 融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgbm 特征过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgbm 全集基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lgbm 特征过滤 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带标签子集，长度为3， 4， 5， 6词的稀疏特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全集，长度为3，4， 5， 6词的稀疏特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤至500特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgbm 全局基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgbm 全集过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 榜基线成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking 融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking 调参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgbm bagging 未调参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stacking 未调参 VS 方案122 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一的不同点在于，模型做了筛选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤 无效model 方案调参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +888,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +943,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -792,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,6 +1005,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2772,15 +2952,428 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <v>609</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="F98" s="2">
+        <v>0.61447099999999999</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.52798999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="1">
+        <v>400</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.60295100000000001</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.51803999999999994</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="1">
+        <v>55</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.66028600000000004</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.62167700000000004</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.50432999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" s="1">
+        <v>55</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.64408299999999996</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.622031</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.52610999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" s="1">
+        <v>51</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.64298699999999998</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.62202500000000005</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.53181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="6">
+        <v>20180307</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0.47494999999999998</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.50126999999999999</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1.151</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.56312600000000002</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.51000999999999996</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1.264</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.55752400000000002</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0.50309000000000004</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14">
+        <v>0.61643999999999999</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F110" s="14">
+        <v>0.569276</v>
+      </c>
+      <c r="G110" s="14"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.61856999999999995</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0.51385999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.60570999999999997</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.55826699999999996</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.50561</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="15">
+        <v>349</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15">
+        <v>0.66168400000000005</v>
+      </c>
+      <c r="F114" s="15">
+        <v>0.62204899999999996</v>
+      </c>
+      <c r="G114" s="15">
+        <v>0.53361999999999998</v>
+      </c>
+      <c r="H114" s="16">
+        <v>0.53656000000000004</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B115" s="1">
+        <v>400</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.57781199999999999</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B116" s="2">
+        <v>609</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2">
+        <v>0.61307699999999998</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0.52356999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.58501899999999996</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0.49722</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B118" s="1">
+        <v>500</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.58519900000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1109</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.61476500000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B120" s="1">
+        <v>560</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.61487099999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B121" s="15">
+        <v>350</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15">
+        <v>0.68006100000000003</v>
+      </c>
+      <c r="F121" s="15">
+        <v>0.62309599999999998</v>
+      </c>
+      <c r="G121" s="15">
+        <v>0.53724000000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B122" s="7">
+        <v>350</v>
+      </c>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="7">
+        <v>0.63683900000000004</v>
+      </c>
+      <c r="F122" s="7">
+        <v>0.62291600000000003</v>
+      </c>
+      <c r="G122" s="18">
+        <v>0.53644000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" s="15">
+        <v>259</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F123" s="15">
+        <v>0.62038300000000002</v>
+      </c>
+      <c r="G123" s="15">
+        <v>0.53744000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" s="1">
+        <v>259</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0.63092499999999996</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.622089</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="7">
+        <v>259</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7">
+        <v>0.63561500000000004</v>
+      </c>
+      <c r="F125" s="7">
+        <v>0.62263199999999996</v>
+      </c>
+      <c r="G125" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
